--- a/Output/CandidateExtracted.xlsx
+++ b/Output/CandidateExtracted.xlsx
@@ -34,28 +34,28 @@
     <x:t>Back-End</x:t>
   </x:si>
   <x:si>
+    <x:t>8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Iacopo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>De Palatis</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>iacopo@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3232854389</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Full-Stack</x:t>
+  </x:si>
+  <x:si>
     <x:t>10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Simona</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Laurenzi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>29</x:t>
-  </x:si>
-  <x:si>
-    <x:t>simona@yahoo.it</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3239569455</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Front-End</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8</x:t>
   </x:si>
 </x:sst>
 </file>

--- a/Output/CandidateExtracted.xlsx
+++ b/Output/CandidateExtracted.xlsx
@@ -14,7 +14,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+  <x:si>
+    <x:t>Iacopo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>De Palatis</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>iacopo@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3232854389</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Full-Stack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dario</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Marchetti</x:t>
+  </x:si>
+  <x:si>
+    <x:t>36</x:t>
+  </x:si>
+  <x:si>
+    <x:t>marco@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3125654664</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Back-End</x:t>
+  </x:si>
   <x:si>
     <x:t>Marco</x:t>
   </x:si>
@@ -25,37 +64,28 @@
     <x:t>20</x:t>
   </x:si>
   <x:si>
-    <x:t>marco@gmail.com</x:t>
-  </x:si>
-  <x:si>
     <x:t>3565435543</x:t>
   </x:si>
   <x:si>
-    <x:t>Back-End</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Iacopo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>De Palatis</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>iacopo@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3232854389</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Full-Stack</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10</x:t>
+    <x:t>9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Simona</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Laurenzi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>simona@yahoo.it</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3239569455</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Front-End</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -455,7 +485,53 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="G2" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:7">
+      <x:c r="A3" s="0" t="s">
         <x:v>13</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:7">
+      <x:c r="A4" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
+        <x:v>6</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Output/CandidateExtracted.xlsx
+++ b/Output/CandidateExtracted.xlsx
@@ -14,7 +14,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+  <x:si>
+    <x:t>Rafael</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Casapao</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rafaelcasapaojr@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3465465465</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Full-Stack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7</x:t>
+  </x:si>
   <x:si>
     <x:t>Iacopo</x:t>
   </x:si>
@@ -22,70 +43,55 @@
     <x:t>De Palatis</x:t>
   </x:si>
   <x:si>
-    <x:t>25</x:t>
-  </x:si>
-  <x:si>
     <x:t>iacopo@gmail.com</x:t>
   </x:si>
   <x:si>
     <x:t>3232854389</x:t>
   </x:si>
   <x:si>
-    <x:t>Full-Stack</x:t>
+    <x:t>2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Marco</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Simoncelli</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>marco@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3565435543</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Back-End</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Simona</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Laurenzi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>simona@yahoo.it</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3239569455</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Front-End</x:t>
   </x:si>
   <x:si>
     <x:t>8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dario</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Marchetti</x:t>
-  </x:si>
-  <x:si>
-    <x:t>36</x:t>
-  </x:si>
-  <x:si>
-    <x:t>marco@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3125654664</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Back-End</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Marco</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Simoncelli</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3565435543</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Simona</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Laurenzi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>29</x:t>
-  </x:si>
-  <x:si>
-    <x:t>simona@yahoo.it</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3239569455</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Front-End</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -473,65 +479,65 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="D2" s="0" t="s">
+      <x:c r="E2" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="E2" s="0" t="s">
+      <x:c r="F2" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
         <x:v>11</x:v>
-      </x:c>
-      <x:c r="F2" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="G2" s="0" t="s">
-        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:7">
       <x:c r="A3" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="B3" s="0" t="s">
+      <x:c r="C3" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="C3" s="0" t="s">
+      <x:c r="D3" s="0" t="s">
         <x:v>15</x:v>
-      </x:c>
-      <x:c r="D3" s="0" t="s">
-        <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G3" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:7">
       <x:c r="A4" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G4" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
